--- a/google_doc_table.xlsx
+++ b/google_doc_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Torrent\society_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DEDB9F-86D2-4009-A8A9-D317AE1011C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7363DBA4-A9DD-4428-8A8D-26600E250977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,10 +887,18 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" activeCellId="1" sqref="D10:H10 O14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1163,6 +1171,24 @@
       <c r="C10">
         <v>11</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
